--- a/swings/2021-11-22/BINANCE_SPOT_ONE_USDT.xlsx
+++ b/swings/2021-11-22/BINANCE_SPOT_ONE_USDT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>SymbolDb</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>swing_price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -551,6 +556,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -605,6 +611,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O3" t="n">
+        <v>0.30005</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -659,6 +668,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O4" t="n">
+        <v>0.30611</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -711,6 +723,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -765,6 +778,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O6" t="n">
+        <v>0.29736</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -817,6 +833,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -871,6 +888,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O8" t="n">
+        <v>0.30049</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -925,6 +945,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O9" t="n">
+        <v>0.292</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -977,6 +1000,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1031,6 +1055,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O11" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1085,6 +1112,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O12" t="n">
+        <v>0.29711</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1137,6 +1167,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1191,6 +1222,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O14" t="n">
+        <v>0.29995</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1243,6 +1277,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1297,6 +1332,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O16" t="n">
+        <v>0.292</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1349,6 +1387,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1403,6 +1442,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O18" t="n">
+        <v>0.29742</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1455,6 +1497,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1509,6 +1552,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O20" t="n">
+        <v>0.29263</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1563,6 +1609,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O21" t="n">
+        <v>0.2961</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1615,6 +1664,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1669,6 +1719,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O23" t="n">
+        <v>0.28963</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1723,6 +1776,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O24" t="n">
+        <v>0.29517</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1775,6 +1831,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1829,6 +1886,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O26" t="n">
+        <v>0.29094</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1881,6 +1941,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1935,6 +1996,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O28" t="n">
+        <v>0.29493</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1987,6 +2051,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2039,6 +2104,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2093,6 +2159,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O31" t="n">
+        <v>0.28602</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2147,6 +2216,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O32" t="n">
+        <v>0.29167</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2201,6 +2273,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O33" t="n">
+        <v>0.28749</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2255,6 +2330,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O34" t="n">
+        <v>0.29225</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2307,6 +2385,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2361,6 +2440,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O36" t="n">
+        <v>0.2893</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2413,6 +2495,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2467,6 +2550,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O38" t="n">
+        <v>0.29802</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2519,6 +2605,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2571,6 +2658,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2623,6 +2711,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2677,6 +2766,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O42" t="n">
+        <v>0.2911</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2729,6 +2821,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2783,6 +2876,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O44" t="n">
+        <v>0.29808</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2837,6 +2933,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O45" t="n">
+        <v>0.29503</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2891,6 +2990,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O46" t="n">
+        <v>0.29753</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2943,6 +3045,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2997,6 +3100,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O48" t="n">
+        <v>0.29337</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3051,6 +3157,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O49" t="n">
+        <v>0.29663</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3105,6 +3214,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O50" t="n">
+        <v>0.2942</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3157,6 +3269,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3209,6 +3322,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3263,6 +3377,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O53" t="n">
+        <v>0.29893</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3315,6 +3432,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3367,6 +3485,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3421,6 +3540,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O56" t="n">
+        <v>0.29453</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3475,6 +3597,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O57" t="n">
+        <v>0.298</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3527,6 +3652,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3579,6 +3705,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3631,6 +3758,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3683,6 +3811,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3737,6 +3866,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O62" t="n">
+        <v>0.2893</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3789,6 +3921,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3841,6 +3974,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3893,6 +4027,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3947,6 +4082,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O66" t="n">
+        <v>0.298</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3999,6 +4137,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4053,6 +4192,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O68" t="n">
+        <v>0.29446</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4105,6 +4247,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4157,6 +4300,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4209,6 +4353,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4263,6 +4408,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O72" t="n">
+        <v>0.30254</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4315,6 +4463,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4367,6 +4516,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4419,6 +4569,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4473,6 +4624,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O76" t="n">
+        <v>0.29288</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4527,6 +4681,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O77" t="n">
+        <v>0.29806</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4579,6 +4736,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4631,6 +4789,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4683,6 +4842,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4735,6 +4895,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4789,6 +4950,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O82" t="n">
+        <v>0.28531</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4841,6 +5005,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4895,6 +5060,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O84" t="n">
+        <v>0.30796</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4949,6 +5117,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O85" t="n">
+        <v>0.29956</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -5003,6 +5174,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O86" t="n">
+        <v>0.30724</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5055,6 +5229,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5109,6 +5284,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O88" t="n">
+        <v>0.30002</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5161,6 +5339,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5215,6 +5394,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O90" t="n">
+        <v>0.30415</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5267,6 +5449,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5321,6 +5504,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O92" t="n">
+        <v>0.2984</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5375,6 +5561,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O93" t="n">
+        <v>0.30061</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5427,6 +5616,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5481,6 +5671,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O95" t="n">
+        <v>0.29658</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5535,6 +5728,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O96" t="n">
+        <v>0.29881</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5587,6 +5783,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5639,6 +5836,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5693,6 +5891,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O99" t="n">
+        <v>0.29336</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5745,6 +5946,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5799,6 +6001,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O101" t="n">
+        <v>0.29616</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5851,6 +6056,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5905,6 +6111,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O103" t="n">
+        <v>0.29315</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5959,6 +6168,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O104" t="n">
+        <v>0.29485</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -6011,6 +6223,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -6063,6 +6276,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -6117,6 +6331,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O107" t="n">
+        <v>0.2903</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -6171,6 +6388,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O108" t="n">
+        <v>0.29273</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6225,6 +6445,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O109" t="n">
+        <v>0.2906</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -6277,6 +6500,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6329,6 +6553,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6383,6 +6608,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O112" t="n">
+        <v>0.2937</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -6435,6 +6663,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6487,6 +6716,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6539,6 +6769,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6593,6 +6824,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O116" t="n">
+        <v>0.28547</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6647,6 +6881,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O117" t="n">
+        <v>0.29014</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6699,6 +6936,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6751,6 +6989,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6803,6 +7042,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6857,6 +7097,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O121" t="n">
+        <v>0.27828</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6909,6 +7152,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6963,6 +7207,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O123" t="n">
+        <v>0.28259</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -7015,6 +7262,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7069,6 +7317,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O125" t="n">
+        <v>0.28</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -7123,6 +7374,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O126" t="n">
+        <v>0.28211</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -7175,6 +7429,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -7229,6 +7484,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O128" t="n">
+        <v>0.27858</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -7281,6 +7539,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -7333,6 +7592,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -7387,6 +7647,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O131" t="n">
+        <v>0.28576</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7441,6 +7704,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O132" t="n">
+        <v>0.28283</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -7493,6 +7759,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7545,6 +7812,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7599,6 +7867,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O135" t="n">
+        <v>0.28878</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7653,6 +7924,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O136" t="n">
+        <v>0.28602</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7705,6 +7979,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7757,6 +8032,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7809,6 +8085,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7863,6 +8140,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O140" t="n">
+        <v>0.2928</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7915,6 +8195,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7967,6 +8248,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -8019,6 +8301,7 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -8073,6 +8356,9 @@
           <t>ONEUSDT</t>
         </is>
       </c>
+      <c r="O144" t="n">
+        <v>0.28464</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -8126,6 +8412,9 @@
         <is>
           <t>ONEUSDT</t>
         </is>
+      </c>
+      <c r="O145" t="n">
+        <v>0.28725</v>
       </c>
     </row>
   </sheetData>
